--- a/Train_4x4.xlsx
+++ b/Train_4x4.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2023_Winter_BRP\Public_BRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C6E8D-36BC-46DE-B0D1-EABC85629C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC57AA-CA39-4D11-A072-F57C7828F209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="4x4~5x6" sheetId="4" r:id="rId3"/>
+    <sheet name="4x4~5x6 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="52">
   <si>
     <t>Model Inference: Greedy</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +187,78 @@
   </si>
   <si>
     <t>Model: Train By 4X4~5x6 dataset. (epoch = 329, training 시간: 1074min55sec)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*6.125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*7.425</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch: 400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch: 128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch_num: 400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr = 5e-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val_Sample: 6400 (4x4~5x6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model: Train By 4X4~5x6 dataset. (epoch = 344, training 시간: 3859min 19sec)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samp(T=8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samp(T=10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samp(T=9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better than ACO-C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having non-feasible solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*(N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed=2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samp(T=7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samp(T=6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -229,12 +302,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -263,12 +348,26 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -554,7 +653,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,94 +669,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -1311,6 +1410,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A4:C4"/>
@@ -1320,11 +1424,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1352,94 +1451,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -1835,6 +1934,770 @@
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>24.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <v>27.68</v>
+      </c>
+      <c r="H20" s="4">
+        <v>26.45</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>30.63</v>
+      </c>
+      <c r="H21" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>32.9</v>
+      </c>
+      <c r="H22" s="4">
+        <v>31.68</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3">
+        <v>32.53</v>
+      </c>
+      <c r="H23" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46.2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>43.45</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3">
+        <v>89.28</v>
+      </c>
+      <c r="H25" s="4">
+        <v>77.55</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3">
+        <v>118.63</v>
+      </c>
+      <c r="H26" s="4">
+        <v>110.75</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE88314-F013-4700-8C94-0204622895D1}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.0754999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.0250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.85</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.85</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.1750000000000007</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3">
+        <v>9.23</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9.15</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10.475</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10.225</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12.324999999999999</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3">
+        <v>12.98</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3">
+        <v>13.98</v>
+      </c>
+      <c r="H14" s="4">
+        <v>13.38</v>
+      </c>
+      <c r="I14" s="3">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16.05</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15.775</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="H15" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15.05</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19.524999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>22.824999999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>22.35</v>
+      </c>
+      <c r="H18" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="I18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>24.475000000000001</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -2074,15 +2937,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE88314-F013-4700-8C94-0204622895D1}">
-  <dimension ref="A1:Q26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1AC02B-994E-4F13-A259-78CA048C29BB}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2091,112 +2955,120 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="15.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,18 +3085,30 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2238,20 +3122,34 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>5.0754999999999999</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9">
         <v>4.9749999999999996</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3">
+      <c r="F6" s="9">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="K6" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="L6" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="I6" s="3">
+      <c r="M6" s="3">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -2265,20 +3163,34 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9">
         <v>6.0250000000000004</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3">
+      <c r="F7" s="9">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K7" s="3">
         <v>6.2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="L7" s="4">
         <v>6.0250000000000004</v>
       </c>
-      <c r="I7" s="3">
+      <c r="M7" s="3">
         <v>6.0250000000000004</v>
       </c>
     </row>
@@ -2293,19 +3205,33 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>6.95</v>
-      </c>
-      <c r="E8" s="4">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="E8" s="9">
         <v>6.85</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3">
+      <c r="F8" s="9">
+        <v>6.85</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6.85</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6.85</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6.85</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="K8" s="3">
         <v>6.93</v>
       </c>
-      <c r="H8" s="4">
+      <c r="L8" s="4">
         <v>6.85</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>6.85</v>
       </c>
     </row>
@@ -2320,19 +3246,33 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>8.35</v>
+        <v>8.375</v>
       </c>
       <c r="E9" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3">
+      <c r="F9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8.2750000000000004</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="K9" s="3">
         <v>8.35</v>
       </c>
-      <c r="H9" s="4">
+      <c r="L9" s="4">
         <v>8.2799999999999994</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>8.2799999999999994</v>
       </c>
     </row>
@@ -2346,20 +3286,34 @@
       <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="3">
         <v>9.1750000000000007</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3">
+      <c r="E10" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="I10" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K10" s="3">
         <v>9.23</v>
       </c>
-      <c r="H10" s="4">
+      <c r="L10" s="4">
         <v>9.15</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>9.1</v>
       </c>
     </row>
@@ -2374,19 +3328,33 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>10.574999999999999</v>
-      </c>
-      <c r="E11" s="3">
+        <v>10.65</v>
+      </c>
+      <c r="E11" s="14">
         <v>10.475</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3">
+      <c r="F11" s="14">
+        <v>10.45</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10.375</v>
+      </c>
+      <c r="H11" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>10.425000000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="K11" s="3">
         <v>10.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="L11" s="8">
         <v>10.4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="M11" s="3">
         <v>10.3</v>
       </c>
     </row>
@@ -2401,19 +3369,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>10.225</v>
-      </c>
-      <c r="E12" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="E12" s="10">
         <v>9.8249999999999993</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3">
+      <c r="F12" s="10">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="G12" s="10">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="K12" s="3">
         <v>10.38</v>
       </c>
-      <c r="H12" s="4">
+      <c r="L12" s="8">
         <v>9.83</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -2428,19 +3410,33 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="E13" s="4">
+        <v>12.875</v>
+      </c>
+      <c r="E13" s="10">
         <v>12.324999999999999</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3">
+      <c r="F13" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>12.324999999999999</v>
+      </c>
+      <c r="H13" s="9">
+        <v>12.275</v>
+      </c>
+      <c r="I13" s="10">
+        <v>12.324999999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="K13" s="3">
         <v>12.98</v>
       </c>
-      <c r="H13" s="8">
+      <c r="L13" s="3">
         <v>12.4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="M13" s="3">
         <v>12.25</v>
       </c>
     </row>
@@ -2455,19 +3451,33 @@
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3">
+        <v>14.05</v>
+      </c>
+      <c r="E14" s="8">
+        <v>13.425000000000001</v>
+      </c>
+      <c r="F14" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>13.35</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="K14" s="3">
         <v>13.98</v>
       </c>
-      <c r="H14" s="4">
+      <c r="L14" s="8">
         <v>13.38</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>13.22</v>
       </c>
     </row>
@@ -2482,21 +3492,33 @@
         <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>16.05</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3">
-        <v>15.775</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>15.525</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15.5</v>
       </c>
       <c r="G15" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15.525</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="K15" s="3">
         <v>15.95</v>
       </c>
-      <c r="H15" s="4">
+      <c r="L15" s="4">
         <v>15.43</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>13.6</v>
       </c>
     </row>
@@ -2511,25 +3533,37 @@
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>15.95</v>
-      </c>
-      <c r="E16" s="4">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3">
+        <v>16.024999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="F16" s="10">
+        <v>14.875</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="H16" s="9">
+        <v>14.775</v>
+      </c>
+      <c r="I16" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="K16" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="H16" s="8">
+      <c r="L16" s="3">
         <v>15.05</v>
       </c>
-      <c r="I16" s="3">
+      <c r="M16" s="3">
         <v>14.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -2540,25 +3574,37 @@
         <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>19.524999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3">
+        <v>19.675000000000001</v>
+      </c>
+      <c r="E17" s="10">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>17.725000000000001</v>
+      </c>
+      <c r="G17" s="10">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="H17" s="10">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="K17" s="3">
         <v>19.350000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="L17" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>16.88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -2569,25 +3615,37 @@
         <v>6</v>
       </c>
       <c r="D18" s="3">
-        <v>22.824999999999999</v>
-      </c>
-      <c r="E18" s="3">
-        <v>22.3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>21.25</v>
+      </c>
+      <c r="G18" s="10">
+        <v>21.25</v>
+      </c>
+      <c r="H18" s="10">
+        <v>21.324999999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>21.425000000000001</v>
+      </c>
+      <c r="J18" s="5">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="K18" s="3">
         <v>22.35</v>
       </c>
-      <c r="H18" s="4">
+      <c r="L18" s="8">
         <v>21.33</v>
       </c>
-      <c r="I18" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -2598,25 +3656,37 @@
         <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>24.475000000000001</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>24.75</v>
+      </c>
+      <c r="E19" s="8">
+        <v>23.024999999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>23.024999999999999</v>
       </c>
       <c r="G19" s="3">
+        <v>23.15</v>
+      </c>
+      <c r="H19" s="3">
+        <v>23.25</v>
+      </c>
+      <c r="I19" s="3">
+        <v>23.425000000000001</v>
+      </c>
+      <c r="J19" s="5">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="K19" s="3">
         <v>24.25</v>
       </c>
-      <c r="H19" s="4">
+      <c r="L19" s="4">
         <v>23</v>
       </c>
-      <c r="I19" s="3">
+      <c r="M19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -2635,17 +3705,20 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="3">
         <v>27.68</v>
       </c>
-      <c r="H20" s="4">
+      <c r="L20" s="4">
         <v>26.45</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -2664,17 +3737,20 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>30.63</v>
       </c>
-      <c r="H21" s="4">
+      <c r="L21" s="4">
         <v>29.1</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -2693,17 +3769,20 @@
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3">
         <v>32.9</v>
       </c>
-      <c r="H22" s="4">
+      <c r="L22" s="4">
         <v>31.68</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -2722,17 +3801,20 @@
       <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3">
         <v>32.53</v>
       </c>
-      <c r="H23" s="4">
+      <c r="L23" s="4">
         <v>29.6</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -2751,17 +3833,20 @@
       <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3">
         <v>46.2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="L24" s="4">
         <v>43.45</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>10</v>
       </c>
@@ -2780,17 +3865,20 @@
       <c r="F25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3">
         <v>89.28</v>
       </c>
-      <c r="H25" s="4">
+      <c r="L25" s="4">
         <v>77.55</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -2809,22 +3897,44 @@
       <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3">
         <v>118.63</v>
       </c>
-      <c r="H26" s="4">
+      <c r="L26" s="4">
         <v>110.75</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -2838,6 +3948,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>